--- a/movies-db-1.xlsx
+++ b/movies-db-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhava\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YangalaReddyGariLoke\Desktop\DataEngineering\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B009BBC9-9D7A-431C-8E2C-29A900BE4B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3A148D-54BB-4978-A35A-69333CAAC827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="movies" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,31 @@
     <sheet name="movie_actor" sheetId="4" r:id="rId4"/>
     <sheet name="languages" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">movies!$A$1:$G$40</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="160">
   <si>
     <t>movie_id</t>
   </si>
@@ -503,13 +517,19 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>profit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +542,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -550,10 +576,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,22 +863,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,7 +901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>101</v>
       </c>
@@ -897,7 +924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>102</v>
       </c>
@@ -920,7 +947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>103</v>
       </c>
@@ -943,7 +970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>104</v>
       </c>
@@ -966,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>105</v>
       </c>
@@ -989,7 +1016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>106</v>
       </c>
@@ -1012,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>107</v>
       </c>
@@ -1035,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>108</v>
       </c>
@@ -1058,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>109</v>
       </c>
@@ -1081,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>110</v>
       </c>
@@ -1101,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>111</v>
       </c>
@@ -1124,7 +1151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>112</v>
       </c>
@@ -1147,7 +1174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>113</v>
       </c>
@@ -1170,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>115</v>
       </c>
@@ -1193,7 +1220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>116</v>
       </c>
@@ -1216,7 +1243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>117</v>
       </c>
@@ -1239,7 +1266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>118</v>
       </c>
@@ -1262,7 +1289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>119</v>
       </c>
@@ -1285,7 +1312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>120</v>
       </c>
@@ -1308,7 +1335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>121</v>
       </c>
@@ -1331,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>122</v>
       </c>
@@ -1354,7 +1381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>123</v>
       </c>
@@ -1377,7 +1404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>124</v>
       </c>
@@ -1397,7 +1424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>125</v>
       </c>
@@ -1420,7 +1447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>126</v>
       </c>
@@ -1443,7 +1470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>127</v>
       </c>
@@ -1466,7 +1493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>128</v>
       </c>
@@ -1486,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>129</v>
       </c>
@@ -1509,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>130</v>
       </c>
@@ -1532,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>131</v>
       </c>
@@ -1555,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>132</v>
       </c>
@@ -1578,7 +1605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>133</v>
       </c>
@@ -1601,7 +1628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>134</v>
       </c>
@@ -1624,7 +1651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>135</v>
       </c>
@@ -1647,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>136</v>
       </c>
@@ -1670,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>137</v>
       </c>
@@ -1693,7 +1720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>138</v>
       </c>
@@ -1716,7 +1743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>139</v>
       </c>
@@ -1739,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>140</v>
       </c>
@@ -1763,6 +1790,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G40" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1770,15 +1798,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF951C0-D968-407B-BACE-9EC26BF67B79}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1794,8 +1822,11 @@
       <c r="E1" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1811,8 +1842,12 @@
       <c r="E2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>C2-B2</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1828,8 +1863,12 @@
       <c r="E3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F41" si="0">C3-B3</f>
+        <v>754.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1845,8 +1884,12 @@
       <c r="E4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>479.79999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1862,8 +1905,12 @@
       <c r="E5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>105</v>
       </c>
@@ -1879,8 +1926,12 @@
       <c r="E6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>107</v>
       </c>
@@ -1896,8 +1947,12 @@
       <c r="E7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>108</v>
       </c>
@@ -1913,8 +1968,12 @@
       <c r="E8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>109</v>
       </c>
@@ -1930,8 +1989,12 @@
       <c r="E9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>970</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>110</v>
       </c>
@@ -1947,8 +2010,12 @@
       <c r="E10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>111</v>
       </c>
@@ -1964,8 +2031,12 @@
       <c r="E11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>113</v>
       </c>
@@ -1981,8 +2052,12 @@
       <c r="E12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>536.79999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>114</v>
       </c>
@@ -1998,8 +2073,12 @@
       <c r="E13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>160.30000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>115</v>
       </c>
@@ -2015,8 +2094,12 @@
       <c r="E14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>252.10000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>116</v>
       </c>
@@ -2032,8 +2115,12 @@
       <c r="E15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>357.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>117</v>
       </c>
@@ -2049,8 +2136,12 @@
       <c r="E16" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>118</v>
       </c>
@@ -2066,8 +2157,12 @@
       <c r="E17" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.11999999999999966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>119</v>
       </c>
@@ -2083,8 +2178,12 @@
       <c r="E18" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>120</v>
       </c>
@@ -2100,8 +2199,12 @@
       <c r="E19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>283.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>121</v>
       </c>
@@ -2117,8 +2220,12 @@
       <c r="E20" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>122</v>
       </c>
@@ -2134,8 +2241,12 @@
       <c r="E21" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>300.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>123</v>
       </c>
@@ -2151,8 +2262,12 @@
       <c r="E22" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>124</v>
       </c>
@@ -2168,8 +2283,12 @@
       <c r="E23" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>247.60000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>125</v>
       </c>
@@ -2185,8 +2304,12 @@
       <c r="E24" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>126</v>
       </c>
@@ -2202,8 +2325,12 @@
       <c r="E25" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>127</v>
       </c>
@@ -2219,8 +2346,12 @@
       <c r="E26" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>128</v>
       </c>
@@ -2236,8 +2367,12 @@
       <c r="E27" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>129</v>
       </c>
@@ -2253,8 +2388,12 @@
       <c r="E28" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>130</v>
       </c>
@@ -2270,8 +2409,12 @@
       <c r="E29" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>7690</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>131</v>
       </c>
@@ -2287,8 +2430,12 @@
       <c r="E30" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>132</v>
       </c>
@@ -2304,8 +2451,12 @@
       <c r="E31" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>133</v>
       </c>
@@ -2321,8 +2472,12 @@
       <c r="E32" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>134</v>
       </c>
@@ -2338,8 +2493,12 @@
       <c r="E33" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>135</v>
       </c>
@@ -2355,8 +2514,12 @@
       <c r="E34" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>136</v>
       </c>
@@ -2372,8 +2535,12 @@
       <c r="E35" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>10790</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>137</v>
       </c>
@@ -2389,8 +2556,12 @@
       <c r="E36" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>153.90000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>138</v>
       </c>
@@ -2406,8 +2577,12 @@
       <c r="E37" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>537.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>139</v>
       </c>
@@ -2423,8 +2598,12 @@
       <c r="E38" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>140</v>
       </c>
@@ -2440,8 +2619,12 @@
       <c r="E39" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>406</v>
       </c>
@@ -2457,8 +2640,12 @@
       <c r="E40" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>412</v>
       </c>
@@ -2473,6 +2660,10 @@
       </c>
       <c r="E41" t="s">
         <v>77</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>676.8</v>
       </c>
     </row>
   </sheetData>
@@ -2482,18 +2673,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6805207-AD4A-4BA5-928C-E78006753CCF}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -2503,8 +2694,11 @@
       <c r="C1" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>50</v>
       </c>
@@ -2514,8 +2708,12 @@
       <c r="C2">
         <v>1986</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="3">
+        <f ca="1">YEAR(TODAY())-C2</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>51</v>
       </c>
@@ -2525,8 +2723,12 @@
       <c r="C3">
         <v>1959</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D66" ca="1" si="0">YEAR(TODAY())-C3</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>52</v>
       </c>
@@ -2536,8 +2738,12 @@
       <c r="C4">
         <v>1976</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>53</v>
       </c>
@@ -2547,8 +2753,12 @@
       <c r="C5">
         <v>1989</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>54</v>
       </c>
@@ -2558,8 +2768,12 @@
       <c r="C6">
         <v>1983</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>55</v>
       </c>
@@ -2569,8 +2783,12 @@
       <c r="C7">
         <v>1981</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>56</v>
       </c>
@@ -2580,8 +2798,12 @@
       <c r="C8">
         <v>1981</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>57</v>
       </c>
@@ -2591,8 +2813,12 @@
       <c r="C9">
         <v>1942</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>58</v>
       </c>
@@ -2602,8 +2828,12 @@
       <c r="C10">
         <v>1948</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>59</v>
       </c>
@@ -2613,8 +2843,12 @@
       <c r="C11">
         <v>1965</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>60</v>
       </c>
@@ -2624,8 +2858,12 @@
       <c r="C12">
         <v>1974</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>61</v>
       </c>
@@ -2635,8 +2873,12 @@
       <c r="C13">
         <v>1965</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>62</v>
       </c>
@@ -2646,8 +2888,12 @@
       <c r="C14">
         <v>1970</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>63</v>
       </c>
@@ -2657,8 +2903,12 @@
       <c r="C15">
         <v>1979</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>64</v>
       </c>
@@ -2668,8 +2918,12 @@
       <c r="C16">
         <v>1974</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>65</v>
       </c>
@@ -2679,8 +2933,12 @@
       <c r="C17">
         <v>1985</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>66</v>
       </c>
@@ -2690,8 +2948,12 @@
       <c r="C18">
         <v>1986</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>67</v>
       </c>
@@ -2701,8 +2963,12 @@
       <c r="C19">
         <v>1958</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>68</v>
       </c>
@@ -2712,8 +2978,12 @@
       <c r="C20">
         <v>1937</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>69</v>
       </c>
@@ -2723,8 +2993,12 @@
       <c r="C21">
         <v>1974</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>70</v>
       </c>
@@ -2734,8 +3008,12 @@
       <c r="C22">
         <v>1959</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>71</v>
       </c>
@@ -2745,8 +3023,12 @@
       <c r="C23">
         <v>1969</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>72</v>
       </c>
@@ -2756,8 +3038,12 @@
       <c r="C24">
         <v>1982</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>73</v>
       </c>
@@ -2767,8 +3053,12 @@
       <c r="C25">
         <v>1984</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>74</v>
       </c>
@@ -2778,8 +3068,12 @@
       <c r="C26">
         <v>1986</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>75</v>
       </c>
@@ -2789,8 +3083,12 @@
       <c r="C27">
         <v>1968</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>76</v>
       </c>
@@ -2800,8 +3098,12 @@
       <c r="C28">
         <v>1972</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>77</v>
       </c>
@@ -2811,8 +3113,12 @@
       <c r="C29">
         <v>1964</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>78</v>
       </c>
@@ -2822,8 +3128,12 @@
       <c r="C30">
         <v>1974</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>79</v>
       </c>
@@ -2833,8 +3143,12 @@
       <c r="C31">
         <v>1975</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>80</v>
       </c>
@@ -2844,8 +3158,12 @@
       <c r="C32">
         <v>1908</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>81</v>
       </c>
@@ -2855,8 +3173,12 @@
       <c r="C33">
         <v>1921</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>82</v>
       </c>
@@ -2866,8 +3188,12 @@
       <c r="C34">
         <v>1976</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>83</v>
       </c>
@@ -2877,8 +3203,12 @@
       <c r="C35">
         <v>1978</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>84</v>
       </c>
@@ -2888,8 +3218,12 @@
       <c r="C36">
         <v>1924</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>85</v>
       </c>
@@ -2899,8 +3233,12 @@
       <c r="C37">
         <v>1940</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>86</v>
       </c>
@@ -2910,8 +3248,12 @@
       <c r="C38">
         <v>1974</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>87</v>
       </c>
@@ -2921,8 +3263,12 @@
       <c r="C39">
         <v>1979</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>88</v>
       </c>
@@ -2932,8 +3278,12 @@
       <c r="C40">
         <v>1952</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>89</v>
       </c>
@@ -2943,8 +3293,12 @@
       <c r="C41">
         <v>1943</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>90</v>
       </c>
@@ -2954,8 +3308,12 @@
       <c r="C42">
         <v>1947</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>91</v>
       </c>
@@ -2965,8 +3323,12 @@
       <c r="C43">
         <v>1967</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>92</v>
       </c>
@@ -2976,8 +3338,12 @@
       <c r="C44">
         <v>1967</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>93</v>
       </c>
@@ -2987,8 +3353,12 @@
       <c r="C45">
         <v>1975</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>94</v>
       </c>
@@ -2998,8 +3368,12 @@
       <c r="C46">
         <v>1965</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>95</v>
       </c>
@@ -3009,8 +3383,12 @@
       <c r="C47">
         <v>1981</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>150</v>
       </c>
@@ -3020,8 +3398,12 @@
       <c r="C48">
         <v>1905</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>151</v>
       </c>
@@ -3031,8 +3413,12 @@
       <c r="C49">
         <v>1919</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>152</v>
       </c>
@@ -3042,8 +3428,12 @@
       <c r="C50">
         <v>1997</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>153</v>
       </c>
@@ -3053,8 +3443,12 @@
       <c r="C51">
         <v>1929</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>154</v>
       </c>
@@ -3064,8 +3458,12 @@
       <c r="C52">
         <v>1988</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>155</v>
       </c>
@@ -3075,8 +3473,12 @@
       <c r="C53">
         <v>1982</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>156</v>
       </c>
@@ -3086,8 +3488,12 @@
       <c r="C54">
         <v>1982</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>157</v>
       </c>
@@ -3097,8 +3503,12 @@
       <c r="C55">
         <v>1982</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>158</v>
       </c>
@@ -3108,8 +3518,12 @@
       <c r="C56">
         <v>1983</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>159</v>
       </c>
@@ -3119,8 +3533,12 @@
       <c r="C57">
         <v>1985</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>160</v>
       </c>
@@ -3130,8 +3548,12 @@
       <c r="C58">
         <v>1979</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>161</v>
       </c>
@@ -3141,8 +3563,12 @@
       <c r="C59">
         <v>1984</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>162</v>
       </c>
@@ -3152,8 +3578,12 @@
       <c r="C60">
         <v>1950</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>163</v>
       </c>
@@ -3163,8 +3593,12 @@
       <c r="C61">
         <v>1955</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>164</v>
       </c>
@@ -3174,8 +3608,12 @@
       <c r="C62">
         <v>1965</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>165</v>
       </c>
@@ -3185,8 +3623,12 @@
       <c r="C63">
         <v>1967</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>166</v>
       </c>
@@ -3196,8 +3638,12 @@
       <c r="C64">
         <v>1946</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>167</v>
       </c>
@@ -3207,8 +3653,12 @@
       <c r="C65">
         <v>1982</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>168</v>
       </c>
@@ -3218,8 +3668,12 @@
       <c r="C66">
         <v>1956</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>169</v>
       </c>
@@ -3229,8 +3683,12 @@
       <c r="C67">
         <v>1985</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="3">
+        <f t="shared" ref="D67:D68" ca="1" si="1">YEAR(TODAY())-C67</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>170</v>
       </c>
@@ -3239,6 +3697,10 @@
       </c>
       <c r="C68">
         <v>1991</v>
+      </c>
+      <c r="D68" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3254,9 +3716,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3264,7 +3726,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>101</v>
       </c>
@@ -3272,7 +3734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>101</v>
       </c>
@@ -3280,7 +3742,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>102</v>
       </c>
@@ -3288,7 +3750,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>102</v>
       </c>
@@ -3296,7 +3758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>103</v>
       </c>
@@ -3304,7 +3766,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>103</v>
       </c>
@@ -3312,7 +3774,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>103</v>
       </c>
@@ -3320,7 +3782,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>104</v>
       </c>
@@ -3328,7 +3790,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>104</v>
       </c>
@@ -3336,7 +3798,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>105</v>
       </c>
@@ -3344,7 +3806,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>105</v>
       </c>
@@ -3352,7 +3814,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>106</v>
       </c>
@@ -3360,7 +3822,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>106</v>
       </c>
@@ -3368,7 +3830,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>107</v>
       </c>
@@ -3376,7 +3838,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>107</v>
       </c>
@@ -3384,7 +3846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>108</v>
       </c>
@@ -3392,7 +3854,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>108</v>
       </c>
@@ -3400,7 +3862,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>108</v>
       </c>
@@ -3408,7 +3870,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>109</v>
       </c>
@@ -3416,7 +3878,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>109</v>
       </c>
@@ -3424,7 +3886,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>109</v>
       </c>
@@ -3432,7 +3894,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>110</v>
       </c>
@@ -3440,7 +3902,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>110</v>
       </c>
@@ -3448,7 +3910,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>111</v>
       </c>
@@ -3456,7 +3918,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>111</v>
       </c>
@@ -3464,7 +3926,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>112</v>
       </c>
@@ -3472,7 +3934,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>112</v>
       </c>
@@ -3480,7 +3942,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>113</v>
       </c>
@@ -3488,7 +3950,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>113</v>
       </c>
@@ -3496,7 +3958,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>114</v>
       </c>
@@ -3504,7 +3966,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>114</v>
       </c>
@@ -3512,7 +3974,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>115</v>
       </c>
@@ -3520,7 +3982,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>115</v>
       </c>
@@ -3528,7 +3990,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>116</v>
       </c>
@@ -3536,7 +3998,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>116</v>
       </c>
@@ -3544,7 +4006,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>117</v>
       </c>
@@ -3552,7 +4014,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>117</v>
       </c>
@@ -3560,7 +4022,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>118</v>
       </c>
@@ -3568,7 +4030,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>118</v>
       </c>
@@ -3576,7 +4038,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>119</v>
       </c>
@@ -3584,7 +4046,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>119</v>
       </c>
@@ -3592,7 +4054,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>120</v>
       </c>
@@ -3600,7 +4062,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>120</v>
       </c>
@@ -3608,7 +4070,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>121</v>
       </c>
@@ -3616,7 +4078,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>121</v>
       </c>
@@ -3624,7 +4086,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>122</v>
       </c>
@@ -3632,7 +4094,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>122</v>
       </c>
@@ -3640,7 +4102,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>123</v>
       </c>
@@ -3648,7 +4110,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>123</v>
       </c>
@@ -3656,7 +4118,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>124</v>
       </c>
@@ -3664,7 +4126,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>124</v>
       </c>
@@ -3672,7 +4134,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>125</v>
       </c>
@@ -3680,7 +4142,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>125</v>
       </c>
@@ -3688,7 +4150,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>125</v>
       </c>
@@ -3696,7 +4158,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>126</v>
       </c>
@@ -3704,7 +4166,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>126</v>
       </c>
@@ -3712,7 +4174,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>126</v>
       </c>
@@ -3720,7 +4182,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>127</v>
       </c>
@@ -3728,7 +4190,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>127</v>
       </c>
@@ -3736,7 +4198,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>128</v>
       </c>
@@ -3744,7 +4206,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>128</v>
       </c>
@@ -3752,7 +4214,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>129</v>
       </c>
@@ -3760,7 +4222,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>129</v>
       </c>
@@ -3768,7 +4230,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>130</v>
       </c>
@@ -3776,7 +4238,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>130</v>
       </c>
@@ -3784,7 +4246,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>131</v>
       </c>
@@ -3792,7 +4254,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>131</v>
       </c>
@@ -3800,7 +4262,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>132</v>
       </c>
@@ -3808,7 +4270,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>132</v>
       </c>
@@ -3816,7 +4278,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>133</v>
       </c>
@@ -3824,7 +4286,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>133</v>
       </c>
@@ -3832,7 +4294,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>134</v>
       </c>
@@ -3840,7 +4302,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>134</v>
       </c>
@@ -3848,7 +4310,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>135</v>
       </c>
@@ -3856,7 +4318,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>135</v>
       </c>
@@ -3864,7 +4326,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>136</v>
       </c>
@@ -3872,7 +4334,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>136</v>
       </c>
@@ -3880,7 +4342,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>137</v>
       </c>
@@ -3888,7 +4350,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>137</v>
       </c>
@@ -3896,7 +4358,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>138</v>
       </c>
@@ -3904,7 +4366,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>138</v>
       </c>
@@ -3912,7 +4374,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>139</v>
       </c>
@@ -3920,7 +4382,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>139</v>
       </c>
@@ -3928,7 +4390,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>140</v>
       </c>
@@ -3936,7 +4398,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>140</v>
       </c>
@@ -3957,12 +4419,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -3970,7 +4432,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3978,7 +4440,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3986,7 +4448,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3994,7 +4456,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4002,7 +4464,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4010,7 +4472,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4018,7 +4480,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4026,7 +4488,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
